--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.423576</v>
+        <v>17.73076433333334</v>
       </c>
       <c r="H2">
-        <v>19.270728</v>
+        <v>53.19229300000001</v>
       </c>
       <c r="I2">
-        <v>0.001681024218962088</v>
+        <v>0.004631884691211661</v>
       </c>
       <c r="J2">
-        <v>0.001681024218962089</v>
+        <v>0.00463188469121166</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N2">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O2">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P2">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q2">
-        <v>17.168490706056</v>
+        <v>126.0184582820326</v>
       </c>
       <c r="R2">
-        <v>154.516416354504</v>
+        <v>1134.166124538293</v>
       </c>
       <c r="S2">
-        <v>0.0009091614440434729</v>
+        <v>0.003415396858182988</v>
       </c>
       <c r="T2">
-        <v>0.0009091614440434732</v>
+        <v>0.003415396858182987</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.423576</v>
+        <v>17.73076433333334</v>
       </c>
       <c r="H3">
-        <v>19.270728</v>
+        <v>53.19229300000001</v>
       </c>
       <c r="I3">
-        <v>0.001681024218962088</v>
+        <v>0.004631884691211661</v>
       </c>
       <c r="J3">
-        <v>0.001681024218962089</v>
+        <v>0.00463188469121166</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.883633</v>
       </c>
       <c r="O3">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P3">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q3">
-        <v>10.456795910536</v>
+        <v>28.86351527116323</v>
       </c>
       <c r="R3">
-        <v>94.11116319482399</v>
+        <v>259.771637440469</v>
       </c>
       <c r="S3">
-        <v>0.0005537420751107334</v>
+        <v>0.0007822692065683124</v>
       </c>
       <c r="T3">
-        <v>0.0005537420751107337</v>
+        <v>0.000782269206568312</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.423576</v>
+        <v>17.73076433333334</v>
       </c>
       <c r="H4">
-        <v>19.270728</v>
+        <v>53.19229300000001</v>
       </c>
       <c r="I4">
-        <v>0.001681024218962088</v>
+        <v>0.004631884691211661</v>
       </c>
       <c r="J4">
-        <v>0.001681024218962089</v>
+        <v>0.00463188469121166</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N4">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O4">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P4">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q4">
-        <v>3.999937222088001</v>
+        <v>14.42402406720489</v>
       </c>
       <c r="R4">
-        <v>35.999434998792</v>
+        <v>129.816216604844</v>
       </c>
       <c r="S4">
-        <v>0.0002118176118786025</v>
+        <v>0.0003909250053768616</v>
       </c>
       <c r="T4">
-        <v>0.0002118176118786025</v>
+        <v>0.0003909250053768615</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.423576</v>
+        <v>17.73076433333334</v>
       </c>
       <c r="H5">
-        <v>19.270728</v>
+        <v>53.19229300000001</v>
       </c>
       <c r="I5">
-        <v>0.001681024218962088</v>
+        <v>0.004631884691211661</v>
       </c>
       <c r="J5">
-        <v>0.001681024218962089</v>
+        <v>0.00463188469121166</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N5">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O5">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P5">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q5">
-        <v>0.119026722088</v>
+        <v>1.597411840828223</v>
       </c>
       <c r="R5">
-        <v>1.071240498792</v>
+        <v>14.376706567454</v>
       </c>
       <c r="S5">
-        <v>6.303087929279404E-06</v>
+        <v>4.329362108349877E-05</v>
       </c>
       <c r="T5">
-        <v>6.303087929279406E-06</v>
+        <v>4.329362108349876E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>10741.933594</v>
       </c>
       <c r="I6">
-        <v>0.9370403925578976</v>
+        <v>0.9353873458333681</v>
       </c>
       <c r="J6">
-        <v>0.9370403925578976</v>
+        <v>0.935387345833368</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N6">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O6">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P6">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q6">
-        <v>9570.09963887507</v>
+        <v>25448.83542591129</v>
       </c>
       <c r="R6">
-        <v>86130.89674987562</v>
+        <v>229039.5188332016</v>
       </c>
       <c r="S6">
-        <v>0.5067868664920252</v>
+        <v>0.6897233448416651</v>
       </c>
       <c r="T6">
-        <v>0.5067868664920253</v>
+        <v>0.689723344841665</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>10741.933594</v>
       </c>
       <c r="I7">
-        <v>0.9370403925578976</v>
+        <v>0.9353873458333681</v>
       </c>
       <c r="J7">
-        <v>0.9370403925578976</v>
+        <v>0.935387345833368</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>4.883633</v>
       </c>
       <c r="O7">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P7">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q7">
         <v>5828.851264829666</v>
       </c>
       <c r="R7">
-        <v>52459.66138346699</v>
+        <v>52459.661383467</v>
       </c>
       <c r="S7">
-        <v>0.308668183113957</v>
+        <v>0.1579755899898483</v>
       </c>
       <c r="T7">
-        <v>0.3086681831139571</v>
+        <v>0.1579755899898483</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>10741.933594</v>
       </c>
       <c r="I8">
-        <v>0.9370403925578976</v>
+        <v>0.9353873458333681</v>
       </c>
       <c r="J8">
-        <v>0.9370403925578976</v>
+        <v>0.935387345833368</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N8">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O8">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P8">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q8">
-        <v>2229.654220631318</v>
+        <v>2912.863874625083</v>
       </c>
       <c r="R8">
-        <v>20066.88798568186</v>
+        <v>26215.77487162575</v>
       </c>
       <c r="S8">
-        <v>0.1180718611585205</v>
+        <v>0.07894546768255205</v>
       </c>
       <c r="T8">
-        <v>0.1180718611585205</v>
+        <v>0.07894546768255202</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>10741.933594</v>
       </c>
       <c r="I9">
-        <v>0.9370403925578976</v>
+        <v>0.9353873458333681</v>
       </c>
       <c r="J9">
-        <v>0.9370403925578976</v>
+        <v>0.935387345833368</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N9">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O9">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P9">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q9">
-        <v>66.34814961742954</v>
+        <v>322.5898142132369</v>
       </c>
       <c r="R9">
-        <v>597.1333465568659</v>
+        <v>2903.308327919132</v>
       </c>
       <c r="S9">
-        <v>0.003513481793394745</v>
+        <v>0.008742943319302704</v>
       </c>
       <c r="T9">
-        <v>0.003513481793394746</v>
+        <v>0.008742943319302704</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>233.243637</v>
+        <v>227.2177583333333</v>
       </c>
       <c r="H10">
-        <v>699.7309110000001</v>
+        <v>681.653275</v>
       </c>
       <c r="I10">
-        <v>0.06103892951773311</v>
+        <v>0.0593570833501536</v>
       </c>
       <c r="J10">
-        <v>0.06103892951773311</v>
+        <v>0.05935708335015359</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N10">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O10">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P10">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q10">
-        <v>623.3974991626471</v>
+        <v>1614.912423467031</v>
       </c>
       <c r="R10">
-        <v>5610.577492463824</v>
+        <v>14534.21181120327</v>
       </c>
       <c r="S10">
-        <v>0.03301216048955779</v>
+        <v>0.04376792806817228</v>
       </c>
       <c r="T10">
-        <v>0.0330121604895578</v>
+        <v>0.04376792806817227</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>233.243637</v>
+        <v>227.2177583333333</v>
       </c>
       <c r="H11">
-        <v>699.7309110000001</v>
+        <v>681.653275</v>
       </c>
       <c r="I11">
-        <v>0.06103892951773311</v>
+        <v>0.0593570833501536</v>
       </c>
       <c r="J11">
-        <v>0.06103892951773311</v>
+        <v>0.05935708335015359</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>4.883633</v>
       </c>
       <c r="O11">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P11">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q11">
-        <v>379.692107564407</v>
+        <v>369.8827142608972</v>
       </c>
       <c r="R11">
-        <v>3417.228968079663</v>
+        <v>3328.944428348075</v>
       </c>
       <c r="S11">
-        <v>0.02010668443227801</v>
+        <v>0.01002469223481194</v>
       </c>
       <c r="T11">
-        <v>0.02010668443227802</v>
+        <v>0.01002469223481194</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>233.243637</v>
+        <v>227.2177583333333</v>
       </c>
       <c r="H12">
-        <v>699.7309110000001</v>
+        <v>681.653275</v>
       </c>
       <c r="I12">
-        <v>0.06103892951773311</v>
+        <v>0.0593570833501536</v>
       </c>
       <c r="J12">
-        <v>0.06103892951773311</v>
+        <v>0.05935708335015359</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N12">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O12">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P12">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q12">
-        <v>145.239957533231</v>
+        <v>184.8422523181889</v>
       </c>
       <c r="R12">
-        <v>1307.159617799079</v>
+        <v>1663.5802708637</v>
       </c>
       <c r="S12">
-        <v>0.00769121594812915</v>
+        <v>0.005009660143707854</v>
       </c>
       <c r="T12">
-        <v>0.007691215948129153</v>
+        <v>0.005009660143707853</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>233.243637</v>
+        <v>227.2177583333333</v>
       </c>
       <c r="H13">
-        <v>699.7309110000001</v>
+        <v>681.653275</v>
       </c>
       <c r="I13">
-        <v>0.06103892951773311</v>
+        <v>0.0593570833501536</v>
       </c>
       <c r="J13">
-        <v>0.06103892951773311</v>
+        <v>0.05935708335015359</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N13">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O13">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P13">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q13">
-        <v>4.321926845731</v>
+        <v>20.47065376227222</v>
       </c>
       <c r="R13">
-        <v>38.89734161157901</v>
+        <v>184.23588386045</v>
       </c>
       <c r="S13">
-        <v>0.0002288686477681477</v>
+        <v>0.0005548029034615217</v>
       </c>
       <c r="T13">
-        <v>0.0002288686477681478</v>
+        <v>0.0005548029034615216</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9157713333333333</v>
+        <v>2.387458333333333</v>
       </c>
       <c r="H14">
-        <v>2.747314</v>
+        <v>7.162374999999999</v>
       </c>
       <c r="I14">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666267</v>
       </c>
       <c r="J14">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666266</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N14">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O14">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P14">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q14">
-        <v>2.447610431511333</v>
+        <v>16.96846299026389</v>
       </c>
       <c r="R14">
-        <v>22.028493883602</v>
+        <v>152.716166912375</v>
       </c>
       <c r="S14">
-        <v>0.0001296137833236425</v>
+        <v>0.0004598852896251037</v>
       </c>
       <c r="T14">
-        <v>0.0001296137833236425</v>
+        <v>0.0004598852896251036</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9157713333333333</v>
+        <v>2.387458333333333</v>
       </c>
       <c r="H15">
-        <v>2.747314</v>
+        <v>7.162374999999999</v>
       </c>
       <c r="I15">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666267</v>
       </c>
       <c r="J15">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666266</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>4.883633</v>
       </c>
       <c r="O15">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P15">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q15">
-        <v>1.490763701306889</v>
+        <v>3.886490100930555</v>
       </c>
       <c r="R15">
-        <v>13.416873311762</v>
+        <v>34.97841090837499</v>
       </c>
       <c r="S15">
-        <v>7.894374075233533E-05</v>
+        <v>0.0001053330302642662</v>
       </c>
       <c r="T15">
-        <v>7.894374075233536E-05</v>
+        <v>0.0001053330302642662</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9157713333333333</v>
+        <v>2.387458333333333</v>
       </c>
       <c r="H16">
-        <v>2.747314</v>
+        <v>7.162374999999999</v>
       </c>
       <c r="I16">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666267</v>
       </c>
       <c r="J16">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666266</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N16">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O16">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P16">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q16">
-        <v>0.5702474514384445</v>
+        <v>1.942203720722222</v>
       </c>
       <c r="R16">
-        <v>5.132227062946</v>
+        <v>17.4798334865</v>
       </c>
       <c r="S16">
-        <v>3.019758727125674E-05</v>
+        <v>5.263829264487806E-05</v>
       </c>
       <c r="T16">
-        <v>3.019758727125675E-05</v>
+        <v>5.263829264487804E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9157713333333333</v>
+        <v>2.387458333333333</v>
       </c>
       <c r="H17">
-        <v>2.747314</v>
+        <v>7.162374999999999</v>
       </c>
       <c r="I17">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666267</v>
       </c>
       <c r="J17">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666266</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N17">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O17">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P17">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q17">
-        <v>0.01696893754955555</v>
+        <v>0.2150924878055555</v>
       </c>
       <c r="R17">
-        <v>0.152720437946</v>
+        <v>1.93583239025</v>
       </c>
       <c r="S17">
-        <v>8.98594059930705E-07</v>
+        <v>5.829512732378813E-06</v>
       </c>
       <c r="T17">
-        <v>8.985940599307054E-07</v>
+        <v>5.829512732378812E-06</v>
       </c>
     </row>
   </sheetData>
